--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\investment-committee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A622C5-7E0A-49E4-9934-7DA05218F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE420DD-4696-48A1-A990-FE4C702304F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57480" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{D6A17827-0EC7-4CE2-BE04-E49E7150395D}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6A17827-0EC7-4CE2-BE04-E49E7150395D}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="117">
   <si>
     <t>SXXP Index</t>
   </si>
@@ -339,52 +339,7 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>Telecommunication</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
     <t>Health Care</t>
-  </si>
-  <si>
-    <t>Personal Care</t>
-  </si>
-  <si>
-    <t>Food Beverage</t>
-  </si>
-  <si>
-    <t>Travel &amp; Leisure</t>
-  </si>
-  <si>
-    <t>Consumer Products</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Automobiles &amp; Parts</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Industrial Goods</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Basic Resources</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
   </si>
   <si>
     <t>Energy</t>
@@ -414,7 +369,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>Banks</t>
+    <t>SXBSCP INDEX</t>
+  </si>
+  <si>
+    <t>SX86P INDEX</t>
+  </si>
+  <si>
+    <t>SXIDUP Index</t>
+  </si>
+  <si>
+    <t>SXFINL Index</t>
+  </si>
+  <si>
+    <t>S600CDP index</t>
+  </si>
+  <si>
+    <t>SXKP INDEX</t>
+  </si>
+  <si>
+    <t>S600CSP index</t>
   </si>
 </sst>
 </file>
@@ -566,7 +539,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -582,6 +555,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -615,9 +589,9 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3960712597</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BQL|11669467554615045329</stp>
+        <stp>BQL|5924338093388442363</stp>
         <tr r="A1" s="2"/>
       </tp>
     </main>
@@ -942,9 +916,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FB601-9A74-46BD-84C7-D45E2B9484E9}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>45</v>
@@ -1290,7 +1264,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>47</v>
@@ -1301,7 +1275,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>47</v>
@@ -1312,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>47</v>
@@ -1323,7 +1297,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>47</v>
@@ -1334,7 +1308,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>47</v>
@@ -1345,7 +1319,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>47</v>
@@ -1356,7 +1330,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>47</v>
@@ -1367,7 +1341,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>47</v>
@@ -1378,7 +1352,7 @@
         <v>60</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>47</v>
@@ -1411,229 +1385,130 @@
         <v>63</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>64</v>
+      <c r="A43" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>65</v>
+      <c r="A44" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>66</v>
+      <c r="A45" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>67</v>
+      <c r="A46" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>68</v>
+      <c r="A47" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>69</v>
+      <c r="A48" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>70</v>
+      <c r="A49" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>71</v>
+      <c r="A50" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>72</v>
+      <c r="A51" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>73</v>
+      <c r="A52" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A53" t="s">
         <v>83</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B53" t="s">
         <v>84</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C53" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1646,10 +1521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5A66E-6ADC-4781-8B7F-B12B32A41B11}">
   <dimension ref="A1:BJ733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="14" customWidth="1"/>
     <col min="62" max="62" width="17.28515625" customWidth="1"/>
@@ -1657,8 +1533,8 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL(Indices!$A$2:$A$62, "px_last(end=0D, fill=PREV, mode=CACHED, per=D, start=-6M, currency=EUR)", "showdates", "true", "showids", "true", "showheaders", "false","cols=62;rows=186")</f>
-        <v/>
+        <f>_xll.BQL(Indices!$A$2:$A$53, "px_last(end=0D, fill=PREV, mode=CACHED, per=D, start=-6M, currency=EUR)", "showdates", "true", "showids", "true", "showheaders", "false","cols=62;rows=186")</f>
+        <v>#N/A Review</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amstatuser\PycharmProjects\investment-committee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8572304D-2687-46CE-8F59-6579C5712D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC2D82-3A96-408F-8A51-6888F5DCC929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6A17827-0EC7-4CE2-BE04-E49E7150395D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>SXXP Index</t>
   </si>
@@ -327,25 +327,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>SXBSCP INDEX</t>
-  </si>
-  <si>
-    <t>SX86P INDEX</t>
-  </si>
-  <si>
     <t>SXIDUP Index</t>
   </si>
   <si>
     <t>SXFINL Index</t>
-  </si>
-  <si>
-    <t>S600CDP index</t>
-  </si>
-  <si>
-    <t>SXKP INDEX</t>
-  </si>
-  <si>
-    <t>S600CSP index</t>
   </si>
   <si>
     <t>SXBSCP Index</t>
@@ -555,10 +540,10 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BQL|5924338093388442363</stp>
+        <stp>BQL|9853176455531710392</stp>
         <tr r="A1" s="2"/>
       </tp>
     </main>
@@ -886,7 +871,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1345,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>94</v>
@@ -1371,7 +1356,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>93</v>
@@ -1382,7 +1367,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>92</v>
@@ -1393,7 +1378,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>91</v>
@@ -1415,7 +1400,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>88</v>
@@ -1437,7 +1422,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>90</v>
@@ -1459,7 +1444,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>84</v>
@@ -1488,9 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5A66E-6ADC-4781-8B7F-B12B32A41B11}">
   <dimension ref="A1:BA733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1629,22 +1612,22 @@
         <v>63</v>
       </c>
       <c r="AQ1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AR1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AT1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AU1" t="s">
         <v>64</v>
       </c>
       <c r="AV1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW1" t="s">
         <v>65</v>
@@ -31130,10 +31113,10 @@
         <v>45590</v>
       </c>
       <c r="B185">
-        <v>519.61</v>
+        <v>519.64</v>
       </c>
       <c r="C185">
-        <v>570.1</v>
+        <v>570.17999999999995</v>
       </c>
       <c r="D185">
         <v>5374.0263771164418</v>
@@ -31157,10 +31140,10 @@
         <v>2827.3054814219472</v>
       </c>
       <c r="K185">
-        <v>180.02</v>
+        <v>179.99</v>
       </c>
       <c r="L185">
-        <v>143.11000000000001</v>
+        <v>143.07</v>
       </c>
       <c r="M185">
         <v>7413.0144154506925</v>
@@ -31193,28 +31176,28 @@
         <v>46.110442402958874</v>
       </c>
       <c r="W185">
-        <v>19494.29</v>
+        <v>19494.86</v>
       </c>
       <c r="X185">
-        <v>9922.2561242111842</v>
+        <v>9920.7392416035036</v>
       </c>
       <c r="Y185">
-        <v>34872.58</v>
+        <v>34871.79</v>
       </c>
       <c r="Z185">
-        <v>12997.948269465374</v>
+        <v>12995.644993669046</v>
       </c>
       <c r="AA185">
-        <v>7514.1</v>
+        <v>7513.63</v>
       </c>
       <c r="AB185">
-        <v>11857.1</v>
+        <v>11860.8</v>
       </c>
       <c r="AC185">
-        <v>516.18886673481722</v>
+        <v>516.2712060015574</v>
       </c>
       <c r="AD185">
-        <v>895.97</v>
+        <v>895.93</v>
       </c>
       <c r="AE185">
         <v>638.69298867124314</v>
@@ -31250,7 +31233,7 @@
         <v>257.64868743610378</v>
       </c>
       <c r="AP185">
-        <v>114.16</v>
+        <v>114.19</v>
       </c>
       <c r="AQ185">
         <v>900.37</v>
@@ -31259,28 +31242,28 @@
         <v>808.07</v>
       </c>
       <c r="AS185">
-        <v>258.14</v>
+        <v>258.12</v>
       </c>
       <c r="AT185">
-        <v>180.85</v>
+        <v>180.8</v>
       </c>
       <c r="AU185">
-        <v>1198.6500000000001</v>
+        <v>1198.76</v>
       </c>
       <c r="AV185">
         <v>217.63943817436694</v>
       </c>
       <c r="AW185">
-        <v>792.13</v>
+        <v>792.17</v>
       </c>
       <c r="AX185">
-        <v>235.78</v>
+        <v>235.77</v>
       </c>
       <c r="AY185">
-        <v>407.39</v>
+        <v>407.58</v>
       </c>
       <c r="AZ185">
-        <v>135.88999999999999</v>
+        <v>135.9</v>
       </c>
       <c r="BA185">
         <v>125.9</v>
